--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3710391.080468715</v>
+        <v>3813802.816432796</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7431601.798216191</v>
+        <v>7396572.076943436</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>134.0513867710689</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>288.5564868585249</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>83.32727861849574</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>18.13834302086206</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>328.9254055463013</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>355.8223561186953</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1038,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>61.36917500887013</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.646802459697534</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>108.2462644793318</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>362.8228179862983</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>212.0483916414929</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>188.4885988745598</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695516</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183395</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856541</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012156</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>67.10592483573603</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>51.35059460820201</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>7.602497644399736</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2245,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0.825382616192478</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>148.8796904206629</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>44.7513807668926</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>104.7777418077809</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="29">
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2855,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>54.63637568893423</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I31" t="n">
-        <v>56.9811888265259</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.090599218082</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652575</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>156.2179706626116</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972051</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>63.16281301712667</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652613</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>39.52129633183176</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808197</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>32.26041896250234</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560529</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>100.7815116657745</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3079.909711953368</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>3079.909711953368</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>3079.909711953368</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="X2" t="n">
-        <v>3079.909711953368</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="Y2" t="n">
-        <v>2689.770379977556</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
@@ -4495,43 +4497,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>836.718037516674</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>645.0321533435005</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>645.0321533435005</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>355.929286469144</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V4" t="n">
-        <v>355.929286469144</v>
+        <v>523.6321230944251</v>
       </c>
       <c r="W4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2266.429418274561</v>
+        <v>1537.086630593157</v>
       </c>
       <c r="C5" t="n">
-        <v>1897.466901334149</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>1539.201202727399</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>1153.412950129154</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250372</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250372</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y5" t="n">
-        <v>2266.429418274561</v>
+        <v>1923.686470657279</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.8906159540807</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9544330261738</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>919.2235689902072</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>919.2235689902072</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>919.2235689902072</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>919.2235689902072</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V7" t="n">
-        <v>664.5390807843204</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="W7" t="n">
-        <v>664.5390807843204</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="X7" t="n">
-        <v>664.5390807843204</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.5390807843204</v>
+        <v>128.5011820977088</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555.338782035317</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>1186.376265094905</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
@@ -4811,43 +4813,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2315.404380360518</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>1941.938622099438</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y8" t="n">
-        <v>1941.938622099438</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.4020639300937</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300937</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300937</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>616.8662539883463</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438281</v>
+        <v>616.8662539883463</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438281</v>
+        <v>616.8662539883463</v>
       </c>
       <c r="W10" t="n">
-        <v>631.7841389438281</v>
+        <v>616.8662539883463</v>
       </c>
       <c r="X10" t="n">
-        <v>403.7945880458108</v>
+        <v>616.8662539883463</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.4020639300937</v>
+        <v>396.0736748448162</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,49 +5044,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
         <v>427.7414352191924</v>
@@ -5127,19 +5129,19 @@
         <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947867</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824511</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713843</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703131</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5263,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5309,7 +5311,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459616</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>768.5380889459616</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>618.4214495336259</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>470.5083559512329</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>470.5083559512329</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>303.3122566661131</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>161.6004255083113</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817748</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919731</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537762012</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3403484614387</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4041655335318</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D19" t="n">
-        <v>664.287526121196</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3744325388029</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4844850408925</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>3860.426268812248</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>3571.009098775287</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>3563.329808225389</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>3342.537229081859</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>448.1846595309963</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>943.510265746755</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1540.888753373307</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2824.769373306003</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>2655.833190378096</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
-        <v>2505.71655096576</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>2046.67901981013</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279773</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136243</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>594.8179559048574</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6217,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>3195.64728158395</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>3026.711098656043</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>2876.594459243707</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>4115.495046492699</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>3826.077876455738</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>3598.08832555772</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>3377.29574641419</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,52 +6451,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6536,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>3228.789304425604</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>3173.601046153954</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>3023.484406741618</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>2875.571313159225</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384021</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>3449.581883569135</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>3228.789304425604</v>
       </c>
     </row>
     <row r="32">
@@ -6692,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2222.121449870429</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2002.519984893371</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1713.444758237568</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1458.760270031681</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>948.5505208511905</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6932,19 +6934,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820877</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>2149.810879820877</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,7 +7186,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2445.740023695907</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2414.376801799955</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2231.521967454859</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2011.9205024778</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1722.845275821998</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1468.160787616111</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1178.743617579151</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7630,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>127.7255247667937</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.15991148282934</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23902,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>114.1735436840668</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>218.1071577446374</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>145.6085800303767</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>68.52575990662532</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>101.6825818796766</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>147.3599015160472</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.6104454096937</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>24.80831533903302</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>104.0840080815012</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>34.11482774761934</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>45.65245098079468</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>640787.2138850625</v>
+        <v>640787.2138850627</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>640787.2138850625</v>
+        <v>640787.2138850626</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651555.9707701275</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651555.9707701275</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651555.9707701275</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651555.9707701275</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651555.9707701275</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26316,46 @@
         <v>800515.7256176755</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176758</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176759</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="J2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
-        <v>800515.725617677</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="L2" t="n">
-        <v>800515.7256176762</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.725617677</v>
+        <v>786967.934697756</v>
       </c>
       <c r="N2" t="n">
-        <v>800515.7256176757</v>
+        <v>786967.934697756</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176772</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363175</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189212</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189205</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26439,25 +26441,25 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16046.58397189191</v>
+      </c>
+      <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="K4" t="n">
-        <v>24037.44323498543</v>
-      </c>
-      <c r="L4" t="n">
-        <v>24037.44323498544</v>
-      </c>
       <c r="M4" t="n">
-        <v>24037.44323498544</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>24037.44323498544</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498544</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-729759.704775363</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.0409522303</v>
+        <v>598985.04095223</v>
       </c>
       <c r="D6" t="n">
         <v>598985.0409522301</v>
       </c>
       <c r="E6" t="n">
-        <v>344386.3590946014</v>
+        <v>344386.3590946015</v>
       </c>
       <c r="F6" t="n">
-        <v>669798.8209019569</v>
+        <v>669798.8209019564</v>
       </c>
       <c r="G6" t="n">
-        <v>669798.8209019565</v>
+        <v>669798.820901957</v>
       </c>
       <c r="H6" t="n">
-        <v>669798.8209019569</v>
+        <v>669798.8209019566</v>
       </c>
       <c r="I6" t="n">
-        <v>669798.8209019566</v>
+        <v>669798.820901957</v>
       </c>
       <c r="J6" t="n">
         <v>452267.6185046794</v>
       </c>
       <c r="K6" t="n">
-        <v>653886.4485351444</v>
+        <v>669798.820901957</v>
       </c>
       <c r="L6" t="n">
-        <v>673314.1665287754</v>
+        <v>669798.8209019564</v>
       </c>
       <c r="M6" t="n">
-        <v>588259.1385932642</v>
+        <v>584743.792966445</v>
       </c>
       <c r="N6" t="n">
-        <v>673314.1665287749</v>
+        <v>669798.8209019569</v>
       </c>
       <c r="O6" t="n">
-        <v>673314.1665287764</v>
+        <v>669798.8209019568</v>
       </c>
       <c r="P6" t="n">
-        <v>669798.8209019569</v>
+        <v>669798.8209019564</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26816,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26984,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>116.9437851878331</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>60.68448185888809</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.60487405155159</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27594,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>233.9993003029659</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>77.95064019541013</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>30.41558253735832</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>105.8776460897577</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>87.2853502103498</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>240.9947042380812</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.908282692170758</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28019,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>7.500557634676312</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.09605447753495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28324,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28336,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28387,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="17">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
     </row>
     <row r="29">
@@ -29575,10 +29577,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-5.59128608628582e-15</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-1.51582450295488e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203969</v>
+        <v>-1.51582450295488e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,10 +31849,10 @@
         <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>491.1355220041064</v>
       </c>
       <c r="N12" t="n">
-        <v>473.8581708471805</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31862,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>524.5136961554247</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>271.1474903386687</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,22 +32551,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>624.1318526922785</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32728,7 +32730,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32783,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>327.118592441407</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>399.1902208908131</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153327</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175688</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>541.2980521010961</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>707.690770008912</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35495,10 +35497,10 @@
         <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>349.0014880820881</v>
       </c>
       <c r="N12" t="n">
-        <v>342.5164587638472</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295349</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>393.1719840720914</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295357</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899076</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629532</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319995</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.331130754993</v>
+        <v>81.04648326295326</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125101</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902961</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>407.3236446867659</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>576.3490579255787</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3813802.816432796</v>
+        <v>3809790.206418803</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>218.1690567639032</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>288.5564868585249</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034761</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.426668121432321</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>18.13834302086206</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>112.5068310321652</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>355.8223561186953</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1040,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
-        <v>61.36917500887013</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>175.5903906093061</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>362.8228179862983</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>72.08802744677187</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>212.0483916414929</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>39.52129633183395</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856541</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012156</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.433962646569</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>67.10592483573603</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>7.602497644399736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>148.8796904206629</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.246821098628</v>
+        <v>95.12712756824172</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012183</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>104.7777418077809</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>54.63637568893423</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>156.2179706626116</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>63.16281301712667</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>39.52129633183176</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>32.26041896250234</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>100.7815116657745</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="W2" t="n">
-        <v>2717.866206673495</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="X2" t="n">
-        <v>2717.866206673495</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y2" t="n">
-        <v>2327.726874697683</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064549</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>234.2149530574645</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C4" t="n">
-        <v>234.2149530574645</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D4" t="n">
-        <v>234.2149530574645</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574645</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="U4" t="n">
-        <v>541.9536817013565</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="V4" t="n">
-        <v>523.6321230944251</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="W4" t="n">
-        <v>234.2149530574645</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="X4" t="n">
-        <v>234.2149530574645</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="Y4" t="n">
-        <v>234.2149530574645</v>
+        <v>826.5851666348717</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1023.012981614816</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>637.2247290165719</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1923.686470657279</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.5011820977088</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513.341883274785</v>
+        <v>1767.878520285688</v>
       </c>
       <c r="C8" t="n">
-        <v>1144.379366334374</v>
+        <v>1398.916003345277</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276232</v>
+        <v>1040.650304738526</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>654.862052140282</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>243.8761473506744</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250374</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2290.081055314719</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1899.941723338907</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.4252100145765</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>751.9508228902773</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>601.8341834779416</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>453.9210898955484</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>307.0311423976381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>139.328305772357</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>616.8662539883463</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U10" t="n">
-        <v>616.8662539883463</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V10" t="n">
-        <v>616.8662539883463</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W10" t="n">
-        <v>616.8662539883463</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X10" t="n">
-        <v>616.8662539883463</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y10" t="n">
-        <v>396.0736748448162</v>
+        <v>920.8870058181842</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,49 +5044,49 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400735</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>473.9330993947867</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000581</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000581</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000581</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713843</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703131</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5263,7 +5263,7 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,10 +5275,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684978</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>768.5380889459616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>618.4214495336259</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>470.5083559512329</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>470.5083559512329</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>303.3122566661131</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6004255083113</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854709</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817748</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919731</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537762012</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4404.185983673937</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>4115.110757018135</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>3860.426268812248</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>3571.009098775287</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>3563.329808225389</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>3342.537229081859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2046.67901981013</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>215.8238677453423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3195.64728158395</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>3026.711098656043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>2876.594459243707</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>4115.495046492699</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3826.077876455738</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3598.08832555772</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3377.29574641419</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,28 +6475,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3228.789304425604</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741618</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159225</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.581883569135</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3228.789304425604</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511905</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232836</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2222.121449870429</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2002.519984893371</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1713.444758237568</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V34" t="n">
-        <v>1458.760270031681</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W34" t="n">
-        <v>1169.343099994721</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>1169.343099994721</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>948.5505208511905</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703114</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>473.9330993947871</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>323.8164599824514</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>175.9033664000582</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000582</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2414.376801799955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2231.521967454859</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T43" t="n">
-        <v>2011.9205024778</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1722.845275821998</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1468.160787616111</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1178.743617579151</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>950.7540666811333</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.7540666811333</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2707707770323</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>634.3345878491255</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.2179484367897</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.9192356072721</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>127.7255247667937</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>14.15991148282934</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>218.1071577446374</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>24.63391537253449</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>147.3599015160472</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.6104454096937</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365912</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>24.80831533903302</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>104.0840080815012</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>34.11482774761934</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>45.65245098079468</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>640787.2138850627</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>640787.2138850626</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>640787.2138850625</v>
+        <v>640787.2138850626</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>640787.2138850625</v>
+        <v>640787.2138850626</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176755</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176759</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176758</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176759</v>
-      </c>
       <c r="E2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="I2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.934697756</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807355</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>6.063298011819521e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189212</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189205</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26441,10 +26441,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189191</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.704775363</v>
+        <v>-729759.7047753625</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.04095223</v>
+        <v>598985.0409522299</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.0409522301</v>
+        <v>598985.0409522303</v>
       </c>
       <c r="E6" t="n">
-        <v>344386.3590946015</v>
+        <v>344038.9798402445</v>
       </c>
       <c r="F6" t="n">
-        <v>669798.8209019564</v>
+        <v>669451.4416475999</v>
       </c>
       <c r="G6" t="n">
-        <v>669798.820901957</v>
+        <v>669451.4416475996</v>
       </c>
       <c r="H6" t="n">
-        <v>669798.8209019566</v>
+        <v>669451.4416475997</v>
       </c>
       <c r="I6" t="n">
-        <v>669798.820901957</v>
+        <v>669451.4416475998</v>
       </c>
       <c r="J6" t="n">
-        <v>452267.6185046794</v>
+        <v>451920.2392503223</v>
       </c>
       <c r="K6" t="n">
-        <v>669798.820901957</v>
+        <v>669451.4416475999</v>
       </c>
       <c r="L6" t="n">
-        <v>669798.8209019564</v>
+        <v>669451.4416475997</v>
       </c>
       <c r="M6" t="n">
-        <v>584743.792966445</v>
+        <v>584396.4137120877</v>
       </c>
       <c r="N6" t="n">
-        <v>669798.8209019569</v>
+        <v>669451.4416475996</v>
       </c>
       <c r="O6" t="n">
-        <v>669798.8209019568</v>
+        <v>669451.4416475997</v>
       </c>
       <c r="P6" t="n">
-        <v>669798.8209019564</v>
+        <v>669451.4416475998</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>32.82611519499878</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>60.68448185888809</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>185.3423572100096</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>233.9993003029659</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>294.3692147095463</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>30.41558253735832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
-        <v>105.8776460897577</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>235.3313350441473</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>6.908282692170758</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>72.66698746754891</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>7.500557634676312</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>-7.579122514774402e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29577,10 +29577,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-5.59128608628582e-15</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233488</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987485</v>
@@ -31630,10 +31630,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>491.1355220041064</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>524.5136961554247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>271.1474903386687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817575</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>624.1318526922785</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32730,7 +32730,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32788,10 +32788,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.118592441407</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,13 +33025,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>416.7024900153327</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>232.75998908852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.9038320421819</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>707.690770008912</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>569.57231719539</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013304</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
         <v>159.233896612727</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>349.0014880820881</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>393.1719840720914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295357</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5512458942243</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>481.5356082478341</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36436,10 +36436,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629532</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>285.3607779319995</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295326</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>576.3490579255787</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>426.9760727509455</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3809790.206418803</v>
+        <v>3811550.736721589</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>218.1690567639032</v>
+        <v>218.1690567639045</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>4.426668121432321</v>
+        <v>4.426668121432772</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>112.5068310321652</v>
+        <v>112.5068310321665</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677259</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>175.5903906093061</v>
+        <v>175.5903906093074</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>72.08802744677187</v>
+        <v>72.0880274467731</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444106</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428173</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>129.5380597272477</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>95.12712756824172</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -4327,40 +4327,40 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
         <v>3105.233036999167</v>
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
         <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
         <v>2078.071769341961</v>
@@ -4476,43 +4476,43 @@
         <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
         <v>826.5851666348717</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221567</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="D5" t="n">
-        <v>1023.012981614816</v>
+        <v>1023.012981614818</v>
       </c>
       <c r="E5" t="n">
-        <v>637.2247290165719</v>
+        <v>637.2247290165733</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4713,64 +4713,64 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.878520285688</v>
+        <v>1767.87852028569</v>
       </c>
       <c r="C8" t="n">
-        <v>1398.916003345277</v>
+        <v>1398.916003345278</v>
       </c>
       <c r="D8" t="n">
-        <v>1040.650304738526</v>
+        <v>1040.650304738528</v>
       </c>
       <c r="E8" t="n">
-        <v>654.862052140282</v>
+        <v>654.8620521402834</v>
       </c>
       <c r="F8" t="n">
-        <v>243.8761473506744</v>
+        <v>243.8761473506758</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="C10" t="n">
-        <v>751.9508228902773</v>
+        <v>751.9508228902786</v>
       </c>
       <c r="D10" t="n">
-        <v>601.8341834779416</v>
+        <v>601.8341834779428</v>
       </c>
       <c r="E10" t="n">
-        <v>453.9210898955484</v>
+        <v>453.9210898955497</v>
       </c>
       <c r="F10" t="n">
-        <v>307.0311423976381</v>
+        <v>307.0311423976393</v>
       </c>
       <c r="G10" t="n">
-        <v>139.328305772357</v>
+        <v>139.3283057723583</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362654</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5108,22 +5108,22 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5193,19 +5193,19 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5308,19 +5308,19 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5506,31 +5506,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6363,22 +6363,22 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6940,16 +6940,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194215</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
         <v>786967.9346977557</v>
@@ -26337,7 +26337,7 @@
         <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
         <v>786967.934697756</v>
@@ -26346,10 +26346,10 @@
         <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977557</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073545</v>
       </c>
       <c r="F3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551156</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.670698566158535e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189212</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729759.7047753625</v>
+        <v>-729759.7047753627</v>
       </c>
       <c r="C6" t="n">
+        <v>598985.0409522301</v>
+      </c>
+      <c r="D6" t="n">
         <v>598985.0409522299</v>
       </c>
-      <c r="D6" t="n">
-        <v>598985.0409522303</v>
-      </c>
       <c r="E6" t="n">
-        <v>344038.9798402445</v>
+        <v>344351.6211691661</v>
       </c>
       <c r="F6" t="n">
-        <v>669451.4416475999</v>
+        <v>669764.082976521</v>
       </c>
       <c r="G6" t="n">
-        <v>669451.4416475996</v>
+        <v>669764.0829765209</v>
       </c>
       <c r="H6" t="n">
-        <v>669451.4416475997</v>
+        <v>669764.082976521</v>
       </c>
       <c r="I6" t="n">
-        <v>669451.4416475998</v>
+        <v>669764.0829765211</v>
       </c>
       <c r="J6" t="n">
-        <v>451920.2392503223</v>
+        <v>452232.8805792436</v>
       </c>
       <c r="K6" t="n">
-        <v>669451.4416475999</v>
+        <v>669764.0829765212</v>
       </c>
       <c r="L6" t="n">
-        <v>669451.4416475997</v>
+        <v>669764.082976521</v>
       </c>
       <c r="M6" t="n">
-        <v>584396.4137120877</v>
+        <v>584709.0550410094</v>
       </c>
       <c r="N6" t="n">
-        <v>669451.4416475996</v>
+        <v>669764.082976521</v>
       </c>
       <c r="O6" t="n">
-        <v>669451.4416475997</v>
+        <v>669764.082976521</v>
       </c>
       <c r="P6" t="n">
-        <v>669451.4416475998</v>
+        <v>669764.0829765211</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>32.82611519499878</v>
+        <v>32.82611519499744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>185.3423572100096</v>
+        <v>185.3423572100091</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>294.3692147095463</v>
+        <v>294.3692147095449</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351647</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>235.3313350441473</v>
+        <v>235.331335044146</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>72.66698746754891</v>
+        <v>72.66698746754768</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>3.126388037344441e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233488</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>652.0478969157701</v>
+        <v>652.0478969157704</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013304</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9138629937518</v>
+        <v>509.913862993752</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
